--- a/imagetype-datacomponent.xlsx
+++ b/imagetype-datacomponent.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944a82e2ddcde9eb/Documents/GithubC/Astromat/ADA/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944a82e2ddcde9eb/Documents/GithubC/smrgeoinfo/ada-metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{64B4DEF4-220D-46E1-9E84-3A51FD76A388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358DBB83-763F-40D8-9B3C-BDF31D99AC7E}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{64B4DEF4-220D-46E1-9E84-3A51FD76A388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CC7E3DE-5D7A-41CE-9EDE-19CE456B03C1}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1410" windowWidth="23895" windowHeight="14025" xr2:uid="{7920B1BF-2AF3-43DB-9015-11E576784E83}"/>
+    <workbookView xWindow="6525" yWindow="345" windowWidth="21000" windowHeight="12135" activeTab="1" xr2:uid="{7920B1BF-2AF3-43DB-9015-11E576784E83}"/>
   </bookViews>
   <sheets>
     <sheet name="imagetype-datacomponent" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Element_Orbital" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
   <si>
     <t>componenttype</t>
   </si>
@@ -169,6 +171,162 @@
   </si>
   <si>
     <t>TEMPatternsImage</t>
+  </si>
+  <si>
+    <t>Al K-series</t>
+  </si>
+  <si>
+    <t>Al L-series</t>
+  </si>
+  <si>
+    <t>C K-series</t>
+  </si>
+  <si>
+    <t>Ca K-series</t>
+  </si>
+  <si>
+    <t>Cl K-series</t>
+  </si>
+  <si>
+    <t>Co K-series</t>
+  </si>
+  <si>
+    <t>Cr K-series</t>
+  </si>
+  <si>
+    <t>Cs L-series</t>
+  </si>
+  <si>
+    <t>F K-series</t>
+  </si>
+  <si>
+    <t>Fe K-series</t>
+  </si>
+  <si>
+    <t>K K-series</t>
+  </si>
+  <si>
+    <t>Mg K-series</t>
+  </si>
+  <si>
+    <t>Mn K-series</t>
+  </si>
+  <si>
+    <t>Na K-series</t>
+  </si>
+  <si>
+    <t>Ni K-series</t>
+  </si>
+  <si>
+    <t>O K-series</t>
+  </si>
+  <si>
+    <t>P K-series</t>
+  </si>
+  <si>
+    <t>Pt M-series</t>
+  </si>
+  <si>
+    <t>Rb L-series</t>
+  </si>
+  <si>
+    <t>S K-series</t>
+  </si>
+  <si>
+    <t>Si K-series</t>
+  </si>
+  <si>
+    <t>Ti K-series</t>
+  </si>
+  <si>
+    <t>V K-series</t>
+  </si>
+  <si>
+    <t>Zn K-series</t>
+  </si>
+  <si>
+    <t>Br L-series</t>
+  </si>
+  <si>
+    <t>Cu K-series</t>
+  </si>
+  <si>
+    <t>Pd L-series</t>
+  </si>
+  <si>
+    <t>Rh L-series</t>
+  </si>
+  <si>
+    <t>Ru L-series</t>
+  </si>
+  <si>
+    <t>Sr L-series</t>
+  </si>
+  <si>
+    <t>Ta L-series</t>
+  </si>
+  <si>
+    <t>Tb L-series</t>
+  </si>
+  <si>
+    <t>W L-series</t>
+  </si>
+  <si>
+    <t>Sc K-series</t>
+  </si>
+  <si>
+    <t>Zr L-series</t>
+  </si>
+  <si>
+    <t>Tl M-series</t>
+  </si>
+  <si>
+    <t>Element_Orbital</t>
+  </si>
+  <si>
+    <t>image type</t>
+  </si>
+  <si>
+    <t>composite</t>
+  </si>
+  <si>
+    <t>single element map</t>
+  </si>
+  <si>
+    <t>BSE image</t>
+  </si>
+  <si>
+    <t>brightfield</t>
+  </si>
+  <si>
+    <t>cathodluminescence</t>
+  </si>
+  <si>
+    <t>Backscatter electron</t>
+  </si>
+  <si>
+    <t>Backscatter electron??</t>
+  </si>
+  <si>
+    <t>element image</t>
+  </si>
+  <si>
+    <t>if its not spatially registered, its not a map</t>
+  </si>
+  <si>
+    <t>Secondary electron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brightfield </t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>can we differentiate single element (one channel) from multiple element (3 channel?); probably also have ratios in channels…</t>
+  </si>
+  <si>
+    <t>Are there any other kind of backscatter images (backscatter x-ray??</t>
   </si>
 </sst>
 </file>
@@ -311,9 +469,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -658,8 +816,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1053,314 +1217,317 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2C1D75-01B0-4D08-B182-C4F362B01AB2}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="119.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1368,4 +1535,313 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43965957-B15F-456D-A101-FD0D54088852}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2AFA44-F7F8-4AA3-A63B-76B4195F238D}">
+  <dimension ref="A1:A38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A38">
+    <sortCondition ref="A2:A38"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>